--- a/Data/Output/doc06_form_1040a.xlsx
+++ b/Data/Output/doc06_form_1040a.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <x:si>
     <x:t>first-name</x:t>
   </x:si>
@@ -46,19 +46,19 @@
     <x:t>signature</x:t>
   </x:si>
   <x:si>
-    <x:t>Joanne</x:t>
+    <x:t>.)03nrie</x:t>
   </x:si>
   <x:si>
     <x:t>Doe</x:t>
   </x:si>
   <x:si>
-    <x:t>345678901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5th Ave.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn, NY</x:t>
+    <x:t>34516 I =8 90 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5th A ve.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn. NY</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
@@ -67,37 +67,23 @@
     <x:t>table</x:t>
   </x:si>
   <x:si>
-    <x:t>56789012345678901</x:t>
+    <x:t>l 1 567 a 90 23 67 a 9 1 _</x:t>
   </x:si>
   <x:si>
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Given Name",""
-"Last Name",""
-"Middle Name",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345678900.00</x:t>
+"Value",""</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Address Line 1","5th Ave"
-"Address Line 2",""
-"Address Line 3",""
-"City",""
-"Country",""
-"State / County / Province",""
-"Zip Postal Code",""</x:t>
+"Address Line 1","5th A ve"</x:t>
   </x:si>
   <x:si>
     <x:t>13.00</x:t>
   </x:si>
   <x:si>
-    <x:t>56789010000000000.00</x:t>
-  </x:si>
-  <x:si>
     <x:t>first-last-name</x:t>
   </x:si>
   <x:si>
@@ -107,7 +93,7 @@
     <x:t>child-tax-credit</x:t>
   </x:si>
   <x:si>
-    <x:t>Mary Doe</x:t>
+    <x:t>riot,lry Doe</x:t>
   </x:si>
   <x:si>
     <x:t>1234567890</x:t>
@@ -122,16 +108,12 @@
     <x:t>2345678901</x:t>
   </x:si>
   <x:si>
-    <x:t>son</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
+    <x:t>. son</x:t>
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Given Name","Mary"
-"Last Name","Doe"
-"Middle Name",""</x:t>
+"Given Name","riot,lry"
+"Last Name","Doe"</x:t>
   </x:si>
   <x:si>
     <x:t>1234568000.00</x:t>
@@ -188,7 +170,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -621,28 +615,28 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>22</x:v>
+      <x:c r="H2" s="1" t="s">
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>17</x:v>
@@ -670,44 +664,38 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -732,44 +720,38 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
